--- a/Documentation/Signals.xlsx
+++ b/Documentation/Signals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="27460" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="3860" windowWidth="25600" windowHeight="20480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -356,9 +356,6 @@
     <t>010：不等跳转</t>
   </si>
   <si>
-    <t>011：T</t>
-  </si>
-  <si>
     <t>011：SP</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
   </si>
   <si>
     <t>100：跳转jump</t>
-  </si>
-  <si>
-    <t>100：PC</t>
   </si>
   <si>
     <t>100：IH</t>
@@ -396,6 +390,12 @@
   </si>
   <si>
     <t>1010：第二个输入</t>
+  </si>
+  <si>
+    <t>011：PC</t>
+  </si>
+  <si>
+    <t>100：T</t>
   </si>
 </sst>
 </file>
@@ -509,27 +509,27 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,10 +810,10 @@
   <dimension ref="A1:AH1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA11" sqref="AA11"/>
+      <selection pane="bottomRight" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -823,7 +823,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
     <col min="19" max="19" width="16.5" customWidth="1"/>
     <col min="22" max="23" width="19.83203125" customWidth="1"/>
-    <col min="24" max="33" width="19.83203125" style="26" customWidth="1"/>
+    <col min="24" max="33" width="19.83203125" style="19" customWidth="1"/>
     <col min="34" max="34" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -831,24 +831,24 @@
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
       <c r="R1" s="23" t="s">
         <v>2</v>
       </c>
@@ -859,30 +859,30 @@
         <v>4</v>
       </c>
       <c r="U1" s="2"/>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="19"/>
-      <c r="X1" s="20" t="s">
+      <c r="W1" s="21"/>
+      <c r="X1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="21" t="s">
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="20" t="s">
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="AG1" s="24"/>
+      <c r="AG1" s="25"/>
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
+      <c r="A2" s="21"/>
       <c r="B2" s="1">
         <v>15</v>
       </c>
@@ -931,9 +931,9 @@
       <c r="Q2" s="1">
         <v>0</v>
       </c>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
       <c r="U2" s="2"/>
       <c r="V2" s="3" t="s">
         <v>9</v>
@@ -992,21 +992,21 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="18" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="5" t="s">
         <v>23</v>
       </c>
@@ -1126,19 +1126,19 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
       <c r="R5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1192,21 +1192,21 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
       <c r="R6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1258,21 +1258,21 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="18" t="s">
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="5" t="s">
         <v>23</v>
       </c>
@@ -1324,21 +1324,21 @@
       <c r="F8" s="10">
         <v>0</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="18" t="s">
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="18" t="s">
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
       <c r="P8" s="1">
         <v>0</v>
       </c>
@@ -1394,21 +1394,21 @@
       <c r="F9" s="10">
         <v>0</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="18" t="s">
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="18" t="s">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
       <c r="P9" s="1">
         <v>1</v>
       </c>
@@ -1464,25 +1464,25 @@
       <c r="F10" s="1">
         <v>0</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="18" t="s">
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
       <c r="R10" s="5" t="s">
         <v>23</v>
       </c>
@@ -1532,21 +1532,21 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="G11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="18" t="s">
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
       <c r="R11" s="5" t="s">
         <v>23</v>
       </c>
@@ -1601,16 +1601,16 @@
       <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
       <c r="R12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>25</v>
       </c>
       <c r="Y12" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Z12" s="7" t="s">
         <v>26</v>
@@ -1673,16 +1673,16 @@
       <c r="I13" s="1">
         <v>1</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
       <c r="R13" s="5" t="s">
         <v>23</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>33</v>
       </c>
       <c r="Y13" s="7" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Z13" s="7" t="s">
         <v>26</v>
@@ -1745,16 +1745,16 @@
       <c r="I14" s="1">
         <v>1</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
       <c r="R14" s="5" t="s">
         <v>23</v>
       </c>
@@ -1815,11 +1815,11 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="1">
         <v>0</v>
       </c>
@@ -1882,21 +1882,21 @@
       <c r="F16" s="1">
         <v>1</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="18" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="11" t="s">
         <v>49</v>
       </c>
@@ -1946,21 +1946,21 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="18" t="s">
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
       <c r="R17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2012,21 +2012,21 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="18" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
       <c r="R18" s="5" t="s">
         <v>23</v>
       </c>
@@ -2080,23 +2080,23 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="18" t="s">
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="18" t="s">
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
       <c r="R19" s="5" t="s">
         <v>23</v>
       </c>
@@ -2150,21 +2150,21 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="18" t="s">
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
       <c r="R20" s="5" t="s">
         <v>23</v>
       </c>
@@ -2212,23 +2212,23 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="G21" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="18" t="s">
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="18" t="s">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
       <c r="R21" s="5" t="s">
         <v>23</v>
       </c>
@@ -2274,21 +2274,21 @@
       <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18" t="s">
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="18" t="s">
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="19"/>
-      <c r="O22" s="19"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
       <c r="P22" s="1">
         <v>0</v>
       </c>
@@ -2338,21 +2338,21 @@
       <c r="F23" s="10">
         <v>0</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="G23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="18" t="s">
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="18" t="s">
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
       <c r="P23" s="1">
         <v>1</v>
       </c>
@@ -2404,11 +2404,11 @@
       <c r="F24" s="12">
         <v>1</v>
       </c>
-      <c r="G24" s="18" t="s">
+      <c r="G24" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
       <c r="J24" s="1">
         <v>0</v>
       </c>
@@ -2482,11 +2482,11 @@
       <c r="F25" s="12">
         <v>1</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
       <c r="J25" s="1">
         <v>0</v>
       </c>
@@ -2523,7 +2523,7 @@
       <c r="W25" s="8"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Z25" s="7"/>
       <c r="AA25" s="7"/>
@@ -2558,16 +2558,16 @@
       <c r="F26" s="12">
         <v>1</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="18" t="s">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="1">
         <v>0</v>
       </c>
@@ -2626,16 +2626,16 @@
       <c r="F27" s="12">
         <v>1</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="18" t="s">
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="1">
         <v>0</v>
       </c>
@@ -2694,16 +2694,16 @@
       <c r="F28" s="12">
         <v>1</v>
       </c>
-      <c r="G28" s="18" t="s">
+      <c r="G28" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="18" t="s">
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="1">
         <v>0</v>
       </c>
@@ -2766,16 +2766,16 @@
       <c r="F29" s="12">
         <v>1</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="G29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="18" t="s">
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="1">
         <v>0</v>
       </c>
@@ -2838,16 +2838,16 @@
       <c r="F30" s="12">
         <v>1</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="18" t="s">
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="1">
         <v>0</v>
       </c>
@@ -2910,11 +2910,11 @@
       <c r="F31" s="10">
         <v>0</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
       <c r="J31" s="1">
         <v>0</v>
       </c>
@@ -2986,11 +2986,11 @@
       <c r="F32" s="10">
         <v>0</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="G32" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
       <c r="J32" s="1">
         <v>0</v>
       </c>
@@ -3255,7 +3255,7 @@
       <c r="Y36" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="Z36" s="25"/>
+      <c r="Z36" s="18"/>
       <c r="AA36" s="17" t="s">
         <v>106</v>
       </c>
@@ -3297,14 +3297,14 @@
         <v>108</v>
       </c>
       <c r="Y37" s="17" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="Z37" s="17"/>
       <c r="AA37" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB37" s="17" t="s">
         <v>110</v>
-      </c>
-      <c r="AB37" s="17" t="s">
-        <v>111</v>
       </c>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
@@ -3338,17 +3338,17 @@
       <c r="V38" s="17"/>
       <c r="W38" s="17"/>
       <c r="X38" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y38" s="17" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="Z38" s="17"/>
       <c r="AA38" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
@@ -3385,10 +3385,10 @@
       <c r="Y39" s="17"/>
       <c r="Z39" s="17"/>
       <c r="AA39" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AB39" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
@@ -3426,7 +3426,7 @@
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
       <c r="AB40" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
@@ -3464,7 +3464,7 @@
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
       <c r="AB41" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
@@ -3502,7 +3502,7 @@
       <c r="Z42" s="17"/>
       <c r="AA42" s="17"/>
       <c r="AB42" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
@@ -3540,7 +3540,7 @@
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
       <c r="AB43" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
@@ -3578,7 +3578,7 @@
       <c r="Z44" s="17"/>
       <c r="AA44" s="17"/>
       <c r="AB44" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
@@ -38005,39 +38005,22 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J17:Q17"/>
+    <mergeCell ref="J11:Q11"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="J16:Q16"/>
+    <mergeCell ref="J14:Q14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J12:Q12"/>
+    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
+    <mergeCell ref="T1:T2"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J18:Q18"/>
@@ -38050,26 +38033,43 @@
     <mergeCell ref="M21:Q21"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="G22:I22"/>
-    <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G5:Q5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:Q6"/>
     <mergeCell ref="J7:Q7"/>
     <mergeCell ref="M9:O9"/>
-    <mergeCell ref="J17:Q17"/>
-    <mergeCell ref="J11:Q11"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="J16:Q16"/>
-    <mergeCell ref="J14:Q14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J12:Q12"/>
-    <mergeCell ref="J13:Q13"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="G29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
